--- a/March2024/Results/Only_Yearly/Results_Stat.xlsx
+++ b/March2024/Results/Only_Yearly/Results_Stat.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsantos\Dropbox\## Conferences\2024\PSCC 2024 - Paris\#3 - Contracting Strategies with Financial Upside\#2 - Codes\Paper\Monthly_Report\August2023\Results\Only_Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frog-\OneDrive - puc-rio.br\Projeto CTG - Carol\Paper-EPSR\March2024\Results\Only_Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F5110C-CA06-493D-96F8-3AB53CA7E12F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{91F5110C-CA06-493D-96F8-3AB53CA7E12F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DFD094E6-776C-402A-8C53-90890F6E0836}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="12972" activeTab="1" xr2:uid="{D1CD5C85-3829-4B72-BE12-E20A940869EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="12975" activeTab="1" xr2:uid="{D1CD5C85-3829-4B72-BE12-E20A940869EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracting" sheetId="2" r:id="rId1"/>
     <sheet name="Quantiles" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>│</t>
   </si>
@@ -107,6 +108,9 @@
   </si>
   <si>
     <t>Q(99%)</t>
+  </si>
+  <si>
+    <t>In Sample</t>
   </si>
 </sst>
 </file>
@@ -470,9 +474,9 @@
       <selection activeCell="I19" sqref="I19:M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
@@ -517,7 +521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <v>0</v>
       </c>
@@ -540,7 +544,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>0.05</v>
       </c>
@@ -563,7 +567,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>0.1</v>
       </c>
@@ -586,7 +590,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>0.35</v>
       </c>
@@ -609,7 +613,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>0.5</v>
       </c>
@@ -632,7 +636,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>0.75</v>
       </c>
@@ -655,7 +659,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>0.9</v>
       </c>
@@ -678,7 +682,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>0.95</v>
       </c>
@@ -701,7 +705,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>0.99</v>
       </c>
@@ -724,7 +728,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="5:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
@@ -754,427 +758,434 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EA894B-842E-4ABA-9162-406C90ADD50B}">
-  <dimension ref="D1:O11"/>
+  <dimension ref="D2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D1" s="1" t="s">
+    <row r="2" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N5" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D2" s="1">
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E6">
         <v>85.316100000000006</v>
       </c>
-      <c r="F2">
+      <c r="F6">
         <v>73.790899999999993</v>
       </c>
-      <c r="G2">
+      <c r="G6">
         <v>71.292000000000002</v>
       </c>
-      <c r="H2">
+      <c r="H6">
         <v>78.024600000000007</v>
       </c>
-      <c r="I2">
+      <c r="I6">
         <v>80.350999999999999</v>
       </c>
-      <c r="J2">
+      <c r="J6">
         <v>83.1922</v>
       </c>
-      <c r="K2">
+      <c r="K6">
         <v>85.540300000000002</v>
       </c>
-      <c r="L2">
+      <c r="L6">
         <v>87.486699999999999</v>
       </c>
-      <c r="M2">
+      <c r="M6">
         <v>89.338899999999995</v>
       </c>
-      <c r="N2">
+      <c r="N6">
         <v>91.678700000000006</v>
       </c>
-      <c r="O2">
+      <c r="O6">
         <v>101.51600000000001</v>
       </c>
     </row>
-    <row r="3" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D3" s="1">
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
         <v>0.05</v>
       </c>
-      <c r="E3">
+      <c r="E7">
         <v>85.316100000000006</v>
       </c>
-      <c r="F3">
+      <c r="F7">
         <v>73.790899999999993</v>
       </c>
-      <c r="G3">
+      <c r="G7">
         <v>71.292000000000002</v>
       </c>
-      <c r="H3">
+      <c r="H7">
         <v>78.024600000000007</v>
       </c>
-      <c r="I3">
+      <c r="I7">
         <v>80.350999999999999</v>
       </c>
-      <c r="J3">
+      <c r="J7">
         <v>83.1922</v>
       </c>
-      <c r="K3">
+      <c r="K7">
         <v>85.540300000000002</v>
       </c>
-      <c r="L3">
+      <c r="L7">
         <v>87.486699999999999</v>
       </c>
-      <c r="M3">
+      <c r="M7">
         <v>89.338899999999995</v>
       </c>
-      <c r="N3">
+      <c r="N7">
         <v>91.678700000000006</v>
       </c>
-      <c r="O3">
+      <c r="O7">
         <v>101.51600000000001</v>
       </c>
     </row>
-    <row r="4" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D4" s="1">
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
         <v>0.1</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <v>85.316100000000006</v>
       </c>
-      <c r="F4">
+      <c r="F8">
         <v>73.790899999999993</v>
       </c>
-      <c r="G4">
+      <c r="G8">
         <v>71.292000000000002</v>
       </c>
-      <c r="H4">
+      <c r="H8">
         <v>78.024600000000007</v>
       </c>
-      <c r="I4">
+      <c r="I8">
         <v>80.350999999999999</v>
       </c>
-      <c r="J4">
+      <c r="J8">
         <v>83.1922</v>
       </c>
-      <c r="K4">
+      <c r="K8">
         <v>85.540300000000002</v>
       </c>
-      <c r="L4">
+      <c r="L8">
         <v>87.486699999999999</v>
       </c>
-      <c r="M4">
+      <c r="M8">
         <v>89.338899999999995</v>
       </c>
-      <c r="N4">
+      <c r="N8">
         <v>91.678700000000006</v>
       </c>
-      <c r="O4">
+      <c r="O8">
         <v>101.51600000000001</v>
       </c>
     </row>
-    <row r="5" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D5" s="1">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
         <v>0.35</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>84.933499999999995</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>75.221400000000003</v>
       </c>
-      <c r="G5">
+      <c r="G9">
         <v>73.5685</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>78.277500000000003</v>
       </c>
-      <c r="I5">
+      <c r="I9">
         <v>79.871700000000004</v>
       </c>
-      <c r="J5">
+      <c r="J9">
         <v>82.284199999999998</v>
       </c>
-      <c r="K5">
+      <c r="K9">
         <v>84.2881</v>
       </c>
-      <c r="L5">
+      <c r="L9">
         <v>86.345299999999995</v>
       </c>
-      <c r="M5">
+      <c r="M9">
         <v>89.81</v>
       </c>
-      <c r="N5">
+      <c r="N9">
         <v>95.549199999999999</v>
       </c>
-      <c r="O5">
+      <c r="O9">
         <v>108.587</v>
       </c>
     </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D6" s="1">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
         <v>0.5</v>
       </c>
-      <c r="E6">
+      <c r="E10">
         <v>84.801900000000003</v>
       </c>
-      <c r="F6">
+      <c r="F10">
         <v>75.3994</v>
       </c>
-      <c r="G6">
+      <c r="G10">
         <v>73.964100000000002</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>78.046300000000002</v>
       </c>
-      <c r="I6">
+      <c r="I10">
         <v>79.747900000000001</v>
       </c>
-      <c r="J6">
+      <c r="J10">
         <v>81.872500000000002</v>
       </c>
-      <c r="K6">
+      <c r="K10">
         <v>83.851299999999995</v>
       </c>
-      <c r="L6">
+      <c r="L10">
         <v>86.028400000000005</v>
       </c>
-      <c r="M6">
+      <c r="M10">
         <v>90.036100000000005</v>
       </c>
-      <c r="N6">
+      <c r="N10">
         <v>96.458399999999997</v>
       </c>
-      <c r="O6">
+      <c r="O10">
         <v>111.629</v>
       </c>
     </row>
-    <row r="7" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D7" s="1">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
         <v>0.75</v>
       </c>
-      <c r="E7">
+      <c r="E11">
         <v>84.693799999999996</v>
       </c>
-      <c r="F7">
+      <c r="F11">
         <v>75.463899999999995</v>
       </c>
-      <c r="G7">
+      <c r="G11">
         <v>74.337299999999999</v>
       </c>
-      <c r="H7">
+      <c r="H11">
         <v>77.930499999999995</v>
       </c>
-      <c r="I7">
+      <c r="I11">
         <v>79.564099999999996</v>
       </c>
-      <c r="J7">
+      <c r="J11">
         <v>81.561899999999994</v>
       </c>
-      <c r="K7">
+      <c r="K11">
         <v>83.496600000000001</v>
       </c>
-      <c r="L7">
+      <c r="L11">
         <v>85.712999999999994</v>
       </c>
-      <c r="M7">
+      <c r="M11">
         <v>90.427999999999997</v>
       </c>
-      <c r="N7">
+      <c r="N11">
         <v>97.364999999999995</v>
       </c>
-      <c r="O7">
+      <c r="O11">
         <v>114.663</v>
       </c>
     </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D8" s="1">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
         <v>0.9</v>
       </c>
-      <c r="E8">
+      <c r="E12">
         <v>84.693799999999996</v>
       </c>
-      <c r="F8">
+      <c r="F12">
         <v>75.463899999999995</v>
       </c>
-      <c r="G8">
+      <c r="G12">
         <v>74.337299999999999</v>
       </c>
-      <c r="H8">
+      <c r="H12">
         <v>77.930499999999995</v>
       </c>
-      <c r="I8">
+      <c r="I12">
         <v>79.564099999999996</v>
       </c>
-      <c r="J8">
+      <c r="J12">
         <v>81.561899999999994</v>
       </c>
-      <c r="K8">
+      <c r="K12">
         <v>83.496600000000001</v>
       </c>
-      <c r="L8">
+      <c r="L12">
         <v>85.712999999999994</v>
       </c>
-      <c r="M8">
+      <c r="M12">
         <v>90.427999999999997</v>
       </c>
-      <c r="N8">
+      <c r="N12">
         <v>97.364999999999995</v>
       </c>
-      <c r="O8">
+      <c r="O12">
         <v>114.663</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D9" s="1">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
         <v>0.95</v>
       </c>
-      <c r="E9">
+      <c r="E13">
         <v>84.616799999999998</v>
       </c>
-      <c r="F9">
+      <c r="F13">
         <v>75.47</v>
       </c>
-      <c r="G9">
+      <c r="G13">
         <v>74.299400000000006</v>
       </c>
-      <c r="H9">
+      <c r="H13">
         <v>77.823400000000007</v>
       </c>
-      <c r="I9">
+      <c r="I13">
         <v>79.357699999999994</v>
       </c>
-      <c r="J9">
+      <c r="J13">
         <v>81.281800000000004</v>
       </c>
-      <c r="K9">
+      <c r="K13">
         <v>83.214299999999994</v>
       </c>
-      <c r="L9">
+      <c r="L13">
         <v>85.481200000000001</v>
       </c>
-      <c r="M9">
+      <c r="M13">
         <v>90.831900000000005</v>
       </c>
-      <c r="N9">
+      <c r="N13">
         <v>98.324299999999994</v>
       </c>
-      <c r="O9">
+      <c r="O13">
         <v>115.699</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D10" s="1">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
         <v>0.99</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>84.613799999999998</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <v>75.47</v>
       </c>
-      <c r="G10">
+      <c r="G14">
         <v>74.293000000000006</v>
       </c>
-      <c r="H10">
+      <c r="H14">
         <v>77.819100000000006</v>
       </c>
-      <c r="I10">
+      <c r="I14">
         <v>79.346299999999999</v>
       </c>
-      <c r="J10">
+      <c r="J14">
         <v>81.281199999999998</v>
       </c>
-      <c r="K10">
+      <c r="K14">
         <v>83.212699999999998</v>
       </c>
-      <c r="L10">
+      <c r="L14">
         <v>85.493499999999997</v>
       </c>
-      <c r="M10">
+      <c r="M14">
         <v>90.837299999999999</v>
       </c>
-      <c r="N10">
+      <c r="N14">
         <v>98.355400000000003</v>
       </c>
-      <c r="O10">
+      <c r="O14">
         <v>115.785</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="E15">
         <v>84.209199999999996</v>
       </c>
-      <c r="F11">
+      <c r="F15">
         <v>75.198899999999995</v>
       </c>
-      <c r="G11">
+      <c r="G15">
         <v>74.627700000000004</v>
       </c>
-      <c r="H11">
+      <c r="H15">
         <v>76.679599999999994</v>
       </c>
-      <c r="I11">
+      <c r="I15">
         <v>77.924400000000006</v>
       </c>
-      <c r="J11">
+      <c r="J15">
         <v>79.911699999999996</v>
       </c>
-      <c r="K11">
+      <c r="K15">
         <v>81.742800000000003</v>
       </c>
-      <c r="L11">
+      <c r="L15">
         <v>84.570499999999996</v>
       </c>
-      <c r="M11">
+      <c r="M15">
         <v>92.587800000000001</v>
       </c>
-      <c r="N11">
+      <c r="N15">
         <v>102.22499999999999</v>
       </c>
-      <c r="O11">
+      <c r="O15">
         <v>125.128</v>
       </c>
     </row>

--- a/March2024/Results/Only_Yearly/Results_Stat.xlsx
+++ b/March2024/Results/Only_Yearly/Results_Stat.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frog-\OneDrive - puc-rio.br\Projeto CTG - Carol\Paper-EPSR\March2024\Results\Only_Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinablank/Documents/Paper-EPSR/March2024/Results/Only_Yearly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{91F5110C-CA06-493D-96F8-3AB53CA7E12F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DFD094E6-776C-402A-8C53-90890F6E0836}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792E91AF-741B-0B44-B7C9-89378F05FF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="12975" activeTab="1" xr2:uid="{D1CD5C85-3829-4B72-BE12-E20A940869EA}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="12980" xr2:uid="{D1CD5C85-3829-4B72-BE12-E20A940869EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracting" sheetId="2" r:id="rId1"/>
     <sheet name="Quantiles" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>│</t>
   </si>
@@ -111,14 +110,25 @@
   </si>
   <si>
     <t>In Sample</t>
+  </si>
+  <si>
+    <t>Out of Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -151,9 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,7 +180,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,13 +478,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C9A742-B087-4E81-A117-1D464DEB4709}">
   <dimension ref="E3:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
@@ -521,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E4" s="1">
         <v>0</v>
       </c>
@@ -544,14 +552,14 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E5" s="1">
         <v>0.05</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>100</v>
       </c>
       <c r="H5" s="1"/>
@@ -567,14 +575,14 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E6" s="1">
         <v>0.1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>100</v>
       </c>
       <c r="H6" s="1"/>
@@ -590,15 +598,15 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E7" s="1">
         <v>0.35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="2">
-        <v>95.25</v>
+      <c r="G7" s="1">
+        <v>94.13</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -613,15 +621,15 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E8" s="1">
         <v>0.5</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
-        <v>93.61</v>
+      <c r="G8">
+        <v>93.39</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -636,15 +644,15 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E9" s="1">
         <v>0.75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="2">
-        <v>92.27</v>
+      <c r="G9">
+        <v>92.15</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -659,15 +667,15 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E10" s="1">
         <v>0.9</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
-        <v>92.27</v>
+      <c r="G10">
+        <v>92.05</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -682,15 +690,15 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E11" s="1">
         <v>0.95</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
-        <v>91.31</v>
+      <c r="G11">
+        <v>92.05</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -705,15 +713,15 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E12" s="1">
         <v>0.99</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="2">
-        <v>91.27</v>
+      <c r="G12">
+        <v>92.05</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -728,15 +736,15 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
-        <v>86.25</v>
+      <c r="G13">
+        <v>90.7</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -758,20 +766,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EA894B-842E-4ABA-9162-406C90ADD50B}">
-  <dimension ref="D2:O15"/>
+  <dimension ref="D2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
@@ -809,384 +817,807 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>85.316100000000006</v>
+        <v>85.983500000000006</v>
       </c>
       <c r="F6">
-        <v>73.790899999999993</v>
+        <v>74.674800000000005</v>
       </c>
       <c r="G6">
-        <v>71.292000000000002</v>
+        <v>70.827200000000005</v>
       </c>
       <c r="H6">
-        <v>78.024600000000007</v>
+        <v>79.161699999999996</v>
       </c>
       <c r="I6">
-        <v>80.350999999999999</v>
+        <v>81.183899999999994</v>
       </c>
       <c r="J6">
-        <v>83.1922</v>
+        <v>83.693700000000007</v>
       </c>
       <c r="K6">
-        <v>85.540300000000002</v>
+        <v>86.3232</v>
       </c>
       <c r="L6">
-        <v>87.486699999999999</v>
+        <v>88.161100000000005</v>
       </c>
       <c r="M6">
-        <v>89.338899999999995</v>
+        <v>90.591999999999999</v>
       </c>
       <c r="N6">
-        <v>91.678700000000006</v>
+        <v>92.265500000000003</v>
       </c>
       <c r="O6">
-        <v>101.51600000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+        <v>99.3232</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D7" s="1">
         <v>0.05</v>
       </c>
       <c r="E7">
-        <v>85.316100000000006</v>
+        <v>85.983500000000006</v>
       </c>
       <c r="F7">
-        <v>73.790899999999993</v>
+        <v>74.674800000000005</v>
       </c>
       <c r="G7">
-        <v>71.292000000000002</v>
+        <v>70.827200000000005</v>
       </c>
       <c r="H7">
-        <v>78.024600000000007</v>
+        <v>79.161699999999996</v>
       </c>
       <c r="I7">
-        <v>80.350999999999999</v>
+        <v>81.183899999999994</v>
       </c>
       <c r="J7">
-        <v>83.1922</v>
+        <v>83.693700000000007</v>
       </c>
       <c r="K7">
-        <v>85.540300000000002</v>
+        <v>86.3232</v>
       </c>
       <c r="L7">
-        <v>87.486699999999999</v>
+        <v>88.161100000000005</v>
       </c>
       <c r="M7">
-        <v>89.338899999999995</v>
+        <v>90.591999999999999</v>
       </c>
       <c r="N7">
-        <v>91.678700000000006</v>
+        <v>92.265500000000003</v>
       </c>
       <c r="O7">
-        <v>101.51600000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+        <v>99.3232</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D8" s="1">
         <v>0.1</v>
       </c>
       <c r="E8">
-        <v>85.316100000000006</v>
+        <v>85.983500000000006</v>
       </c>
       <c r="F8">
-        <v>73.790899999999993</v>
+        <v>74.674800000000005</v>
       </c>
       <c r="G8">
-        <v>71.292000000000002</v>
+        <v>70.827200000000005</v>
       </c>
       <c r="H8">
-        <v>78.024600000000007</v>
+        <v>79.161699999999996</v>
       </c>
       <c r="I8">
-        <v>80.350999999999999</v>
+        <v>81.183899999999994</v>
       </c>
       <c r="J8">
-        <v>83.1922</v>
+        <v>83.693700000000007</v>
       </c>
       <c r="K8">
-        <v>85.540300000000002</v>
+        <v>86.3232</v>
       </c>
       <c r="L8">
-        <v>87.486699999999999</v>
+        <v>88.161100000000005</v>
       </c>
       <c r="M8">
-        <v>89.338899999999995</v>
+        <v>90.591999999999999</v>
       </c>
       <c r="N8">
-        <v>91.678700000000006</v>
+        <v>92.265500000000003</v>
       </c>
       <c r="O8">
-        <v>101.51600000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+        <v>99.3232</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D9" s="1">
         <v>0.35</v>
       </c>
       <c r="E9">
-        <v>84.933499999999995</v>
+        <v>85.511300000000006</v>
       </c>
       <c r="F9">
-        <v>75.221400000000003</v>
+        <v>77.031700000000001</v>
       </c>
       <c r="G9">
-        <v>73.5685</v>
+        <v>75.635400000000004</v>
       </c>
       <c r="H9">
-        <v>78.277500000000003</v>
+        <v>79.118899999999996</v>
       </c>
       <c r="I9">
-        <v>79.871700000000004</v>
+        <v>80.232699999999994</v>
       </c>
       <c r="J9">
-        <v>82.284199999999998</v>
+        <v>82.335700000000003</v>
       </c>
       <c r="K9">
-        <v>84.2881</v>
+        <v>84.71</v>
       </c>
       <c r="L9">
-        <v>86.345299999999995</v>
+        <v>87.097800000000007</v>
       </c>
       <c r="M9">
-        <v>89.81</v>
+        <v>90.764600000000002</v>
       </c>
       <c r="N9">
-        <v>95.549199999999999</v>
+        <v>94.955699999999993</v>
       </c>
       <c r="O9">
-        <v>108.587</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+        <v>106.997</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D10" s="1">
         <v>0.5</v>
       </c>
       <c r="E10">
-        <v>84.801900000000003</v>
+        <v>85.451099999999997</v>
       </c>
       <c r="F10">
-        <v>75.3994</v>
+        <v>77.113100000000003</v>
       </c>
       <c r="G10">
-        <v>73.964100000000002</v>
+        <v>75.839200000000005</v>
       </c>
       <c r="H10">
-        <v>78.046300000000002</v>
+        <v>79.007400000000004</v>
       </c>
       <c r="I10">
-        <v>79.747900000000001</v>
+        <v>80.1327</v>
       </c>
       <c r="J10">
-        <v>81.872500000000002</v>
+        <v>82.220799999999997</v>
       </c>
       <c r="K10">
-        <v>83.851299999999995</v>
+        <v>84.510199999999998</v>
       </c>
       <c r="L10">
-        <v>86.028400000000005</v>
+        <v>87.001999999999995</v>
       </c>
       <c r="M10">
-        <v>90.036100000000005</v>
+        <v>90.860900000000001</v>
       </c>
       <c r="N10">
-        <v>96.458399999999997</v>
+        <v>95.944500000000005</v>
       </c>
       <c r="O10">
-        <v>111.629</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+        <v>108.298</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D11" s="1">
         <v>0.75</v>
       </c>
       <c r="E11">
-        <v>84.693799999999996</v>
+        <v>85.351799999999997</v>
       </c>
       <c r="F11">
-        <v>75.463899999999995</v>
+        <v>77.176400000000001</v>
       </c>
       <c r="G11">
-        <v>74.337299999999999</v>
+        <v>76.084500000000006</v>
       </c>
       <c r="H11">
-        <v>77.930499999999995</v>
+        <v>78.671400000000006</v>
       </c>
       <c r="I11">
-        <v>79.564099999999996</v>
+        <v>79.764799999999994</v>
       </c>
       <c r="J11">
-        <v>81.561899999999994</v>
+        <v>81.968900000000005</v>
       </c>
       <c r="K11">
-        <v>83.496600000000001</v>
+        <v>84.166300000000007</v>
       </c>
       <c r="L11">
-        <v>85.712999999999994</v>
+        <v>86.866299999999995</v>
       </c>
       <c r="M11">
-        <v>90.427999999999997</v>
+        <v>91.212599999999995</v>
       </c>
       <c r="N11">
-        <v>97.364999999999995</v>
+        <v>96.743899999999996</v>
       </c>
       <c r="O11">
-        <v>114.663</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+        <v>110.39700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D12" s="1">
         <v>0.9</v>
       </c>
       <c r="E12">
-        <v>84.693799999999996</v>
+        <v>85.343599999999995</v>
       </c>
       <c r="F12">
-        <v>75.463899999999995</v>
+        <v>77.177899999999994</v>
       </c>
       <c r="G12">
-        <v>74.337299999999999</v>
+        <v>76.142700000000005</v>
       </c>
       <c r="H12">
-        <v>77.930499999999995</v>
+        <v>78.647999999999996</v>
       </c>
       <c r="I12">
-        <v>79.564099999999996</v>
+        <v>79.764099999999999</v>
       </c>
       <c r="J12">
-        <v>81.561899999999994</v>
+        <v>81.941800000000001</v>
       </c>
       <c r="K12">
-        <v>83.496600000000001</v>
+        <v>84.154600000000002</v>
       </c>
       <c r="L12">
-        <v>85.712999999999994</v>
+        <v>86.851600000000005</v>
       </c>
       <c r="M12">
-        <v>90.427999999999997</v>
+        <v>91.262900000000002</v>
       </c>
       <c r="N12">
-        <v>97.364999999999995</v>
+        <v>96.875600000000006</v>
       </c>
       <c r="O12">
-        <v>114.663</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+        <v>110.524</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D13" s="1">
         <v>0.95</v>
       </c>
       <c r="E13">
-        <v>84.616799999999998</v>
+        <v>85.343599999999995</v>
       </c>
       <c r="F13">
-        <v>75.47</v>
+        <v>77.177899999999994</v>
       </c>
       <c r="G13">
-        <v>74.299400000000006</v>
+        <v>76.142700000000005</v>
       </c>
       <c r="H13">
-        <v>77.823400000000007</v>
+        <v>78.647999999999996</v>
       </c>
       <c r="I13">
-        <v>79.357699999999994</v>
+        <v>79.764099999999999</v>
       </c>
       <c r="J13">
-        <v>81.281800000000004</v>
+        <v>81.941800000000001</v>
       </c>
       <c r="K13">
-        <v>83.214299999999994</v>
+        <v>84.154600000000002</v>
       </c>
       <c r="L13">
-        <v>85.481200000000001</v>
+        <v>86.851600000000005</v>
       </c>
       <c r="M13">
-        <v>90.831900000000005</v>
+        <v>91.262900000000002</v>
       </c>
       <c r="N13">
-        <v>98.324299999999994</v>
+        <v>96.875600000000006</v>
       </c>
       <c r="O13">
-        <v>115.699</v>
-      </c>
-    </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+        <v>110.524</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D14" s="1">
         <v>0.99</v>
       </c>
       <c r="E14">
-        <v>84.613799999999998</v>
+        <v>85.343599999999995</v>
       </c>
       <c r="F14">
-        <v>75.47</v>
+        <v>77.177899999999994</v>
       </c>
       <c r="G14">
-        <v>74.293000000000006</v>
+        <v>76.142700000000005</v>
       </c>
       <c r="H14">
-        <v>77.819100000000006</v>
+        <v>78.647999999999996</v>
       </c>
       <c r="I14">
-        <v>79.346299999999999</v>
+        <v>79.764099999999999</v>
       </c>
       <c r="J14">
-        <v>81.281199999999998</v>
+        <v>81.941800000000001</v>
       </c>
       <c r="K14">
-        <v>83.212699999999998</v>
+        <v>84.154600000000002</v>
       </c>
       <c r="L14">
-        <v>85.493499999999997</v>
+        <v>86.851600000000005</v>
       </c>
       <c r="M14">
-        <v>90.837299999999999</v>
+        <v>91.262900000000002</v>
       </c>
       <c r="N14">
-        <v>98.355400000000003</v>
+        <v>96.875600000000006</v>
       </c>
       <c r="O14">
-        <v>115.785</v>
-      </c>
-    </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
+        <v>110.524</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E15">
+        <v>85.235100000000003</v>
+      </c>
+      <c r="F15">
+        <v>77.164599999999993</v>
+      </c>
+      <c r="G15">
+        <v>76.345299999999995</v>
+      </c>
+      <c r="H15">
+        <v>78.381699999999995</v>
+      </c>
+      <c r="I15">
+        <v>79.401399999999995</v>
+      </c>
+      <c r="J15">
+        <v>81.615399999999994</v>
+      </c>
+      <c r="K15">
+        <v>83.814499999999995</v>
+      </c>
+      <c r="L15">
+        <v>86.620599999999996</v>
+      </c>
+      <c r="M15">
+        <v>91.934200000000004</v>
+      </c>
+      <c r="N15">
+        <v>97.766199999999998</v>
+      </c>
+      <c r="O15">
+        <v>112.962</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>85.8536</v>
+      </c>
+      <c r="F21">
+        <v>74.6922</v>
+      </c>
+      <c r="G21">
+        <v>72.191100000000006</v>
+      </c>
+      <c r="H21">
+        <v>79.144400000000005</v>
+      </c>
+      <c r="I21">
+        <v>81.098699999999994</v>
+      </c>
+      <c r="J21">
+        <v>83.900899999999993</v>
+      </c>
+      <c r="K21">
+        <v>86.223699999999994</v>
+      </c>
+      <c r="L21">
+        <v>88.156599999999997</v>
+      </c>
+      <c r="M21">
+        <v>89.810299999999998</v>
+      </c>
+      <c r="N21">
+        <v>91.4345</v>
+      </c>
+      <c r="O21">
+        <v>98.241399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E22">
+        <v>85.8536</v>
+      </c>
+      <c r="F22">
+        <v>74.6922</v>
+      </c>
+      <c r="G22">
+        <v>72.191100000000006</v>
+      </c>
+      <c r="H22">
+        <v>79.144400000000005</v>
+      </c>
+      <c r="I22">
+        <v>81.098699999999994</v>
+      </c>
+      <c r="J22">
+        <v>83.900899999999993</v>
+      </c>
+      <c r="K22">
+        <v>86.223699999999994</v>
+      </c>
+      <c r="L22">
+        <v>88.156599999999997</v>
+      </c>
+      <c r="M22">
+        <v>89.810299999999998</v>
+      </c>
+      <c r="N22">
+        <v>91.4345</v>
+      </c>
+      <c r="O22">
+        <v>98.241399999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>85.8536</v>
+      </c>
+      <c r="F23">
+        <v>74.6922</v>
+      </c>
+      <c r="G23">
+        <v>72.191100000000006</v>
+      </c>
+      <c r="H23">
+        <v>79.144400000000005</v>
+      </c>
+      <c r="I23">
+        <v>81.098699999999994</v>
+      </c>
+      <c r="J23">
+        <v>83.900899999999993</v>
+      </c>
+      <c r="K23">
+        <v>86.223699999999994</v>
+      </c>
+      <c r="L23">
+        <v>88.156599999999997</v>
+      </c>
+      <c r="M23">
+        <v>89.810299999999998</v>
+      </c>
+      <c r="N23">
+        <v>91.4345</v>
+      </c>
+      <c r="O23">
+        <v>98.241399999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D24" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E24">
+        <v>85.334400000000002</v>
+      </c>
+      <c r="F24">
+        <v>76.736999999999995</v>
+      </c>
+      <c r="G24">
+        <v>75.381799999999998</v>
+      </c>
+      <c r="H24">
+        <v>78.737300000000005</v>
+      </c>
+      <c r="I24">
+        <v>80.158799999999999</v>
+      </c>
+      <c r="J24">
+        <v>82.700400000000002</v>
+      </c>
+      <c r="K24">
+        <v>84.703599999999994</v>
+      </c>
+      <c r="L24">
+        <v>86.987499999999997</v>
+      </c>
+      <c r="M24">
+        <v>90.386200000000002</v>
+      </c>
+      <c r="N24">
+        <v>93.566599999999994</v>
+      </c>
+      <c r="O24">
+        <v>105.288</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>85.268199999999993</v>
+      </c>
+      <c r="F25">
+        <v>76.892600000000002</v>
+      </c>
+      <c r="G25">
+        <v>75.446100000000001</v>
+      </c>
+      <c r="H25">
+        <v>78.873500000000007</v>
+      </c>
+      <c r="I25">
+        <v>79.933099999999996</v>
+      </c>
+      <c r="J25">
+        <v>82.489000000000004</v>
+      </c>
+      <c r="K25">
+        <v>84.489699999999999</v>
+      </c>
+      <c r="L25">
+        <v>86.808899999999994</v>
+      </c>
+      <c r="M25">
+        <v>90.637900000000002</v>
+      </c>
+      <c r="N25">
+        <v>94.0244</v>
+      </c>
+      <c r="O25">
+        <v>106.447</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D26" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E26">
+        <v>85.159000000000006</v>
+      </c>
+      <c r="F26">
+        <v>77.002799999999993</v>
+      </c>
+      <c r="G26">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="H26">
+        <v>78.581500000000005</v>
+      </c>
+      <c r="I26">
+        <v>79.761700000000005</v>
+      </c>
+      <c r="J26">
+        <v>82.299300000000002</v>
+      </c>
+      <c r="K26">
         <v>84.209199999999996</v>
       </c>
-      <c r="F15">
-        <v>75.198899999999995</v>
-      </c>
-      <c r="G15">
-        <v>74.627700000000004</v>
-      </c>
-      <c r="H15">
-        <v>76.679599999999994</v>
-      </c>
-      <c r="I15">
-        <v>77.924400000000006</v>
-      </c>
-      <c r="J15">
-        <v>79.911699999999996</v>
-      </c>
-      <c r="K15">
-        <v>81.742800000000003</v>
-      </c>
-      <c r="L15">
-        <v>84.570499999999996</v>
-      </c>
-      <c r="M15">
-        <v>92.587800000000001</v>
-      </c>
-      <c r="N15">
-        <v>102.22499999999999</v>
-      </c>
-      <c r="O15">
-        <v>125.128</v>
+      <c r="L26">
+        <v>86.686999999999998</v>
+      </c>
+      <c r="M26">
+        <v>90.665000000000006</v>
+      </c>
+      <c r="N26">
+        <v>95.1173</v>
+      </c>
+      <c r="O26">
+        <v>110.477</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E27">
+        <v>85.15</v>
+      </c>
+      <c r="F27">
+        <v>77.004499999999993</v>
+      </c>
+      <c r="G27">
+        <v>75.842399999999998</v>
+      </c>
+      <c r="H27">
+        <v>78.557500000000005</v>
+      </c>
+      <c r="I27">
+        <v>79.731399999999994</v>
+      </c>
+      <c r="J27">
+        <v>82.288600000000002</v>
+      </c>
+      <c r="K27">
+        <v>84.190399999999997</v>
+      </c>
+      <c r="L27">
+        <v>86.659099999999995</v>
+      </c>
+      <c r="M27">
+        <v>90.700800000000001</v>
+      </c>
+      <c r="N27">
+        <v>95.206900000000005</v>
+      </c>
+      <c r="O27">
+        <v>110.739</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D28" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E28">
+        <v>85.15</v>
+      </c>
+      <c r="F28">
+        <v>77.004499999999993</v>
+      </c>
+      <c r="G28">
+        <v>75.842399999999998</v>
+      </c>
+      <c r="H28">
+        <v>78.557500000000005</v>
+      </c>
+      <c r="I28">
+        <v>79.731399999999994</v>
+      </c>
+      <c r="J28">
+        <v>82.288600000000002</v>
+      </c>
+      <c r="K28">
+        <v>84.190399999999997</v>
+      </c>
+      <c r="L28">
+        <v>86.659099999999995</v>
+      </c>
+      <c r="M28">
+        <v>90.700800000000001</v>
+      </c>
+      <c r="N28">
+        <v>95.206900000000005</v>
+      </c>
+      <c r="O28">
+        <v>110.739</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D29" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E29">
+        <v>85.15</v>
+      </c>
+      <c r="F29">
+        <v>77.004499999999993</v>
+      </c>
+      <c r="G29">
+        <v>75.842399999999998</v>
+      </c>
+      <c r="H29">
+        <v>78.557500000000005</v>
+      </c>
+      <c r="I29">
+        <v>79.731399999999994</v>
+      </c>
+      <c r="J29">
+        <v>82.288600000000002</v>
+      </c>
+      <c r="K29">
+        <v>84.190399999999997</v>
+      </c>
+      <c r="L29">
+        <v>86.659099999999995</v>
+      </c>
+      <c r="M29">
+        <v>90.700800000000001</v>
+      </c>
+      <c r="N29">
+        <v>95.206900000000005</v>
+      </c>
+      <c r="O29">
+        <v>110.739</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>85.030699999999996</v>
+      </c>
+      <c r="F30">
+        <v>76.997600000000006</v>
+      </c>
+      <c r="G30">
+        <v>76.188299999999998</v>
+      </c>
+      <c r="H30">
+        <v>78.313599999999994</v>
+      </c>
+      <c r="I30">
+        <v>79.405799999999999</v>
+      </c>
+      <c r="J30">
+        <v>81.912300000000002</v>
+      </c>
+      <c r="K30">
+        <v>83.839399999999998</v>
+      </c>
+      <c r="L30">
+        <v>86.340599999999995</v>
+      </c>
+      <c r="M30">
+        <v>91.040400000000005</v>
+      </c>
+      <c r="N30">
+        <v>95.991200000000006</v>
+      </c>
+      <c r="O30">
+        <v>111.789</v>
       </c>
     </row>
   </sheetData>
